--- a/R/UI and SERVER/VERSION.1.1/Données/Geo/Regions/CSRs/RDATA.CSRs.xlsx
+++ b/R/UI and SERVER/VERSION.1.1/Données/Geo/Regions/CSRs/RDATA.CSRs.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Australia and New Zealand&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;53&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Australia and New Zealand&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;53</t>
   </si>
   <si>
     <t xml:space="preserve">#FFCC00</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Americas</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Caribbean&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;29&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Caribbean&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;29</t>
   </si>
   <si>
     <t xml:space="preserve">#FF0000</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Central America</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Central America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;13&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Central America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;13</t>
   </si>
   <si>
     <t xml:space="preserve">#B20000</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Central Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;143&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Central Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;143</t>
   </si>
   <si>
     <t xml:space="preserve">#FFCC99</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;14&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;14</t>
   </si>
   <si>
     <t xml:space="preserve">#CCFF33</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Eastern Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;30&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;30</t>
   </si>
   <si>
     <t xml:space="preserve">#CC9966</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;151&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Eastern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;151</t>
   </si>
   <si>
     <t xml:space="preserve">#33CCFF</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">Melanesia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Melanesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;54&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Melanesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;54</t>
   </si>
   <si>
     <t xml:space="preserve">#FFFF00</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Micronesia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Micronesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;57&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Micronesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;57</t>
   </si>
   <si>
     <t xml:space="preserve">#FFFF99</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Middle Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Middle Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;17&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Middle Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;17</t>
   </si>
   <si>
     <t xml:space="preserve">#99CC33</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Northern Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;15&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;15</t>
   </si>
   <si>
     <t xml:space="preserve">#66CC33</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Northern America</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;21&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;21</t>
   </si>
   <si>
     <t xml:space="preserve">#663399</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">Northern Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;154&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Northern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;154</t>
   </si>
   <si>
     <t xml:space="preserve">#3399CC</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">Polynesia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Polynesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;61&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Polynesia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;61</t>
   </si>
   <si>
     <t xml:space="preserve">#FFFFCC</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">South America</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;South America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;5&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;South America&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;5</t>
   </si>
   <si>
     <t xml:space="preserve">#660000</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">South-Eastern Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;South-Eastern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;35&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;South-Eastern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;35</t>
   </si>
   <si>
     <t xml:space="preserve">#996600</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">Southern Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;18&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;18</t>
   </si>
   <si>
     <t xml:space="preserve">#339900</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">Southern Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;34&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;34</t>
   </si>
   <si>
     <t xml:space="preserve">#FF9900</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">Southern Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;39&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Southern Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;39</t>
   </si>
   <si>
     <t xml:space="preserve">#006699</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Western Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;11&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Africa&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;11</t>
   </si>
   <si>
     <t xml:space="preserve">#336600</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Western Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;145&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Asia&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;145</t>
   </si>
   <si>
     <t xml:space="preserve">#FF6600</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">Western Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;155&lt;br&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Continental Sub-Region: &lt;/b&gt;Western Europe&lt;br&gt;&lt;b&gt;M49 Code: &lt;/b&gt;155</t>
   </si>
   <si>
     <t xml:space="preserve">#003366</t>
